--- a/lazy_eval.xlsx
+++ b/lazy_eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/portolan/projects/personal/lazy-evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EEF4C11-D773-8F41-B9F8-4F2D8EF516F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF199979-C2AA-A646-A288-A1C04548A290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{B66EE8FB-3026-0445-8F28-F965EF9DFBE6}"/>
   </bookViews>
